--- a/output/sumV.xlsx
+++ b/output/sumV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sumV.csv" sheetId="1" r:id="rId1"/>
@@ -149,8 +149,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -162,13 +174,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:K37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -565,16 +589,16 @@
         <v>6.5674999999999999</v>
       </c>
       <c r="I2" s="1">
-        <f>G2-$H$2</f>
-        <v>-5.1815707088743697</v>
+        <f>ABS(F2-H$2)</f>
+        <v>0.17250000000000032</v>
       </c>
       <c r="J2">
         <f>ABS(SUM(I2:I7))</f>
-        <v>33.585511190834708</v>
+        <v>2.7400000000000011</v>
       </c>
       <c r="K2">
         <f>(1/6)*J2</f>
-        <v>5.5975851984724514</v>
+        <v>0.45666666666666683</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -600,8 +624,8 @@
         <v>0.31819805153394598</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I7" si="0">G3-$H$2</f>
-        <v>-6.2493019484660541</v>
+        <f t="shared" ref="I3:I6" si="0">ABS(F3-H$2)</f>
+        <v>0.17250000000000032</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -628,7 +652,7 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>-6.48971825406948</v>
+        <v>1.7500000000000071E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -655,7 +679,7 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>-3.2794534674825497</v>
+        <v>1.0375000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -682,7 +706,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>-5.916961761308376</v>
+        <v>1.1974999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -708,8 +732,8 @@
         <v>9.8994949366117094E-2</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.4685050506338824</v>
+        <f>ABS(F7-H$2)</f>
+        <v>0.14250000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -739,16 +763,16 @@
         <v>5.17</v>
       </c>
       <c r="I8" s="1">
-        <f>G8-$H$2</f>
-        <v>-4.5946720804895298</v>
+        <f>ABS(F8-$H$8)</f>
+        <v>1.585</v>
       </c>
       <c r="J8">
         <f>ABS(SUM(I8:I13))</f>
-        <v>32.772338392470189</v>
+        <v>6.25</v>
       </c>
       <c r="K8">
         <f>(1/6)*J8</f>
-        <v>5.4620563987450312</v>
+        <v>1.0416666666666665</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -774,8 +798,8 @@
         <v>1.1525840533340701</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I13" si="1">G9-$H$2</f>
-        <v>-5.4149159466659302</v>
+        <f t="shared" ref="I9:I13" si="1">ABS(F9-$H$8)</f>
+        <v>0.55499999999999972</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -802,7 +826,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>-4.9765097423302702</v>
+        <v>0.98500000000000032</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -829,7 +853,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>-5.916961761308376</v>
+        <v>0.71999999999999975</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -856,7 +880,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>-5.7613982694473362</v>
+        <v>1.9100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -883,7 +907,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>-6.107880592228744</v>
+        <v>0.49500000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -913,16 +937,16 @@
         <v>5.4675000000000002</v>
       </c>
       <c r="I14" s="1">
-        <f>G14-$H$2</f>
-        <v>-5.8674642866253182</v>
+        <f>ABS(F14-$H$14)</f>
+        <v>0.69749999999999979</v>
       </c>
       <c r="J14">
         <f>ABS(SUM(I14:I19))</f>
-        <v>36.357369773085978</v>
+        <v>3.5299999999999994</v>
       </c>
       <c r="K14">
         <f>(1/6)*J14</f>
-        <v>6.0595616288476624</v>
+        <v>0.58833333333333315</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -948,8 +972,8 @@
         <v>7.0710678118659498E-3</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ref="I15:I19" si="2">G15-$H$2</f>
-        <v>-6.5604289321881337</v>
+        <f t="shared" ref="I15:I19" si="2">ABS(F15-$H$14)</f>
+        <v>0.2574999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -976,7 +1000,7 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" si="2"/>
-        <v>-6.433149711574556</v>
+        <v>0.45749999999999957</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1003,7 +1027,7 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>-5.2522813869930198</v>
+        <v>0.17750000000000021</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1030,7 +1054,7 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>-5.8038246763185288</v>
+        <v>1.5875000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,7 +1081,7 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>-6.4402207793864221</v>
+        <v>0.35250000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1087,16 +1111,16 @@
         <v>4.5408333333333344</v>
       </c>
       <c r="I20" s="1">
-        <f>G20-$H$2</f>
-        <v>-5.4290580822896599</v>
+        <f>ABS(F20-$H$20)</f>
+        <v>1.024166666666666</v>
       </c>
       <c r="J20">
         <f>ABS(SUM(I20:I25))</f>
-        <v>34.660313498238274</v>
+        <v>7.2133333333333303</v>
       </c>
       <c r="K20">
         <f>(1/6)*J20</f>
-        <v>5.7767189163730457</v>
+        <v>1.2022222222222216</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1122,8 +1146,8 @@
         <v>0.33234018715767699</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:I25" si="3">G21-$H$2</f>
-        <v>-6.2351598128423227</v>
+        <f t="shared" ref="I21:I25" si="3">ABS(F21-$H$20)</f>
+        <v>0.60416666666666519</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,7 +1174,7 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" si="3"/>
-        <v>-6.3765811690796319</v>
+        <v>0.93416666666666526</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1177,7 +1201,7 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" si="3"/>
-        <v>-4.8068041148454999</v>
+        <v>1.0441666666666656</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1204,7 +1228,7 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" si="3"/>
-        <v>-6.136164863476206</v>
+        <v>2.4758333333333344</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1231,7 +1255,7 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" si="3"/>
-        <v>-5.6765454557049502</v>
+        <v>1.1308333333333342</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1261,16 +1285,16 @@
         <v>6.7408333333333337</v>
       </c>
       <c r="I26" s="1">
-        <f>G26-$H$2</f>
-        <v>-6.1432359312880722</v>
+        <f>ABS(F26-$H$26)</f>
+        <v>1.4091666666666667</v>
       </c>
       <c r="J26">
         <f>ABS(SUM(I26:I31))</f>
-        <v>33.684506140200831</v>
+        <v>6.035000000000001</v>
       </c>
       <c r="K26">
         <f>(1/6)*J26</f>
-        <v>5.6140843567001379</v>
+        <v>1.0058333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1296,8 +1320,8 @@
         <v>1.2445079348883199</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:I31" si="4">G27-$H$2</f>
-        <v>-5.3229920651116798</v>
+        <f t="shared" ref="I27:I31" si="4">ABS(F27-$H$26)</f>
+        <v>0.44916666666666671</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1324,7 +1348,7 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" si="4"/>
-        <v>-5.6199769132100261</v>
+        <v>0.12083333333333357</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1351,7 +1375,7 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" si="4"/>
-        <v>-5.8391800153778561</v>
+        <v>0.8458333333333341</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1378,7 +1402,7 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" si="4"/>
-        <v>-5.2239971157455596</v>
+        <v>2.0508333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1405,7 +1429,7 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" si="4"/>
-        <v>-5.5351240994676401</v>
+        <v>1.1591666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1435,16 +1459,16 @@
         <v>4.9475000000000007</v>
       </c>
       <c r="I32" s="1">
-        <f>G32-$H$2</f>
-        <v>-6.0371699141100885</v>
+        <f>ABS(F32-$H$32)</f>
+        <v>1.1625000000000005</v>
       </c>
       <c r="J32">
         <f>ABS(SUM(I32:I37))</f>
-        <v>36.074527060611366</v>
+        <v>7.7249999999999996</v>
       </c>
       <c r="K32">
         <f>(1/6)*J32</f>
-        <v>6.0124211767685605</v>
+        <v>1.2874999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1470,8 +1494,8 @@
         <v>0.11313708498984799</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" ref="I33:I37" si="5">G33-$H$2</f>
-        <v>-6.4543629150101518</v>
+        <f t="shared" ref="I33:I37" si="5">ABS(F33-$H$32)</f>
+        <v>0.33249999999999957</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1498,7 +1522,7 @@
       </c>
       <c r="I34" s="1">
         <f t="shared" si="5"/>
-        <v>-6.2139466094067259</v>
+        <v>0.73249999999999904</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1525,7 +1549,7 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" si="5"/>
-        <v>-6.2493019484660541</v>
+        <v>2.7974999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1552,7 +1576,7 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" si="5"/>
-        <v>-6.107880592228744</v>
+        <v>1.8025000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1578,8 +1602,8 @@
         <v>1.5556349186103999</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.0118650813896002</v>
+        <f>ABS(F37-$H$32)</f>
+        <v>0.89750000000000085</v>
       </c>
     </row>
     <row r="38" spans="1:9">

--- a/output/sumV.xlsx
+++ b/output/sumV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="23">
   <si>
     <t>AA.short</t>
   </si>
@@ -36,9 +36,6 @@
     <t>d15N.value</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>Ala</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t>Plank</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Tr-AAmean</t>
@@ -149,8 +143,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -174,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -184,6 +184,9 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -193,6 +196,9 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,15 +528,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -547,1201 +553,1108 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2">
         <v>6.74</v>
       </c>
       <c r="G2">
-        <v>1.38592929112563</v>
-      </c>
-      <c r="H2">
         <f>AVERAGE(F2:F7)</f>
         <v>6.5674999999999999</v>
       </c>
-      <c r="I2" s="1">
-        <f>ABS(F2-H$2)</f>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H7" si="0">ABS(F2-G$2)</f>
         <v>0.17250000000000032</v>
       </c>
+      <c r="I2">
+        <f>ABS(SUM(H2:H7))</f>
+        <v>2.7400000000000011</v>
+      </c>
       <c r="J2">
-        <f>ABS(SUM(I2:I7))</f>
-        <v>2.7400000000000011</v>
-      </c>
-      <c r="K2">
-        <f>(1/6)*J2</f>
+        <f>(1/6)*I2</f>
         <v>0.45666666666666683</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
       <c r="F3">
         <v>6.3949999999999996</v>
       </c>
-      <c r="G3">
-        <v>0.31819805153394598</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I6" si="0">ABS(F3-H$2)</f>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
         <v>0.17250000000000032</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
       <c r="F4">
         <v>6.585</v>
       </c>
-      <c r="G4">
-        <v>7.7781745930519799E-2</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>1.7500000000000071E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
       <c r="F5">
         <v>7.6050000000000004</v>
       </c>
-      <c r="G5">
-        <v>3.2880465325174502</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>1.0375000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
       </c>
       <c r="F6">
         <v>5.37</v>
       </c>
-      <c r="G6">
-        <v>0.65053823869162397</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>1.1974999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
       </c>
       <c r="F7">
         <v>6.71</v>
       </c>
-      <c r="G7">
-        <v>9.8994949366117094E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f>ABS(F7-H$2)</f>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
         <v>0.14250000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>6.7549999999999999</v>
       </c>
       <c r="G8">
-        <v>1.9728279195104701</v>
-      </c>
-      <c r="H8">
         <f>AVERAGE(F8:F13)</f>
         <v>5.17</v>
       </c>
-      <c r="I8" s="1">
-        <f>ABS(F8-$H$8)</f>
+      <c r="H8" s="1">
+        <f>ABS(F8-$G$8)</f>
         <v>1.585</v>
       </c>
+      <c r="I8">
+        <f>ABS(SUM(H8:H13))</f>
+        <v>6.25</v>
+      </c>
       <c r="J8">
-        <f>ABS(SUM(I8:I13))</f>
-        <v>6.25</v>
-      </c>
-      <c r="K8">
-        <f>(1/6)*J8</f>
+        <f>(1/6)*I8</f>
         <v>1.0416666666666665</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>5.7249999999999996</v>
       </c>
-      <c r="G9">
-        <v>1.1525840533340701</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" ref="I9:I13" si="1">ABS(F9-$H$8)</f>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9:H13" si="1">ABS(F9-$G$8)</f>
         <v>0.55499999999999972</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>6.1550000000000002</v>
       </c>
-      <c r="G10">
-        <v>1.5909902576697299</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>0.98500000000000032</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>4.45</v>
       </c>
-      <c r="G11">
-        <v>0.65053823869162397</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>0.71999999999999975</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>3.26</v>
       </c>
-      <c r="G12">
-        <v>0.80610173055266399</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>1.9100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>4.6749999999999998</v>
       </c>
-      <c r="G13">
-        <v>0.45961940777125598</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>0.49500000000000011</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>6.165</v>
       </c>
       <c r="G14">
-        <v>0.70003571337468196</v>
-      </c>
-      <c r="H14">
         <f>AVERAGE(F14:F19)</f>
         <v>5.4675000000000002</v>
       </c>
-      <c r="I14" s="1">
-        <f>ABS(F14-$H$14)</f>
+      <c r="H14" s="1">
+        <f>ABS(F14-$G$14)</f>
         <v>0.69749999999999979</v>
       </c>
+      <c r="I14">
+        <f>ABS(SUM(H14:H19))</f>
+        <v>3.5299999999999994</v>
+      </c>
       <c r="J14">
-        <f>ABS(SUM(I14:I19))</f>
-        <v>3.5299999999999994</v>
-      </c>
-      <c r="K14">
-        <f>(1/6)*J14</f>
+        <f>(1/6)*I14</f>
         <v>0.58833333333333315</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>5.7249999999999996</v>
       </c>
-      <c r="G15">
-        <v>7.0710678118659498E-3</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" ref="I15:I19" si="2">ABS(F15-$H$14)</f>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15:H19" si="2">ABS(F15-$G$14)</f>
         <v>0.2574999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>5.9249999999999998</v>
       </c>
-      <c r="G16">
-        <v>0.134350288425444</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="2"/>
         <v>0.45749999999999957</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>5.29</v>
       </c>
-      <c r="G17">
-        <v>1.3152186130069801</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="2"/>
         <v>0.17750000000000021</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>3.88</v>
       </c>
-      <c r="G18">
-        <v>0.76367532368147095</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="2"/>
         <v>1.5875000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>5.82</v>
       </c>
-      <c r="G19">
-        <v>0.12727922061357799</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="H19" s="1">
         <f t="shared" si="2"/>
         <v>0.35250000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
         <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
       </c>
       <c r="F20">
         <v>5.5650000000000004</v>
       </c>
       <c r="G20">
-        <v>1.13844191771034</v>
-      </c>
-      <c r="H20">
         <f>AVERAGE(F20:F25)</f>
         <v>4.5408333333333344</v>
       </c>
-      <c r="I20" s="1">
-        <f>ABS(F20-$H$20)</f>
+      <c r="H20" s="1">
+        <f>ABS(F20-$G$20)</f>
         <v>1.024166666666666</v>
       </c>
+      <c r="I20">
+        <f>ABS(SUM(H20:H25))</f>
+        <v>7.2133333333333303</v>
+      </c>
       <c r="J20">
-        <f>ABS(SUM(I20:I25))</f>
-        <v>7.2133333333333303</v>
-      </c>
-      <c r="K20">
-        <f>(1/6)*J20</f>
+        <f>(1/6)*I20</f>
         <v>1.2022222222222216</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
         <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
       </c>
       <c r="F21">
         <v>5.1449999999999996</v>
       </c>
-      <c r="G21">
-        <v>0.33234018715767699</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" ref="I21:I25" si="3">ABS(F21-$H$20)</f>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:H25" si="3">ABS(F21-$G$20)</f>
         <v>0.60416666666666519</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
         <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
       </c>
       <c r="F22">
         <v>5.4749999999999996</v>
       </c>
-      <c r="G22">
-        <v>0.19091883092036799</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="3"/>
         <v>0.93416666666666526</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
         <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
       </c>
       <c r="F23">
         <v>5.585</v>
       </c>
-      <c r="G23">
-        <v>1.7606958851545</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="H23" s="1">
         <f t="shared" si="3"/>
         <v>1.0441666666666656</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
         <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
       </c>
       <c r="F24">
         <v>2.0649999999999999</v>
       </c>
-      <c r="G24">
-        <v>0.43133513652379402</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="H24" s="1">
         <f t="shared" si="3"/>
         <v>2.4758333333333344</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
         <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
       </c>
       <c r="F25">
         <v>3.41</v>
       </c>
-      <c r="G25">
-        <v>0.89095454429505005</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="H25" s="1">
         <f t="shared" si="3"/>
         <v>1.1308333333333342</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26">
         <v>8.15</v>
       </c>
       <c r="G26">
-        <v>0.42426406871192801</v>
-      </c>
-      <c r="H26">
         <f>AVERAGE(F26:F31)</f>
         <v>6.7408333333333337</v>
       </c>
-      <c r="I26" s="1">
-        <f>ABS(F26-$H$26)</f>
+      <c r="H26" s="1">
+        <f>ABS(F26-$G$26)</f>
         <v>1.4091666666666667</v>
       </c>
+      <c r="I26">
+        <f>ABS(SUM(H26:H31))</f>
+        <v>6.035000000000001</v>
+      </c>
       <c r="J26">
-        <f>ABS(SUM(I26:I31))</f>
-        <v>6.035000000000001</v>
-      </c>
-      <c r="K26">
-        <f>(1/6)*J26</f>
+        <f>(1/6)*I26</f>
         <v>1.0058333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27">
         <v>7.19</v>
       </c>
-      <c r="G27">
-        <v>1.2445079348883199</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" ref="I27:I31" si="4">ABS(F27-$H$26)</f>
+      <c r="H27" s="1">
+        <f t="shared" ref="H27:H31" si="4">ABS(F27-$G$26)</f>
         <v>0.44916666666666671</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>6.62</v>
       </c>
-      <c r="G28">
-        <v>0.94752308678997399</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="H28" s="1">
         <f t="shared" si="4"/>
         <v>0.12083333333333357</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29">
         <v>5.8949999999999996</v>
       </c>
-      <c r="G29">
-        <v>0.72831998462214398</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="H29" s="1">
         <f t="shared" si="4"/>
         <v>0.8458333333333341</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G30">
-        <v>1.3435028842544401</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="H30" s="1">
         <f t="shared" si="4"/>
         <v>2.0508333333333333</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>7.9</v>
       </c>
-      <c r="G31">
-        <v>1.0323759005323601</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="H31" s="1">
         <f t="shared" si="4"/>
         <v>1.1591666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32">
         <v>3.7850000000000001</v>
       </c>
       <c r="G32">
-        <v>0.53033008588991104</v>
-      </c>
-      <c r="H32">
         <f>AVERAGE(F32:F37)</f>
         <v>4.9475000000000007</v>
       </c>
-      <c r="I32" s="1">
-        <f>ABS(F32-$H$32)</f>
+      <c r="H32" s="1">
+        <f>ABS(F32-$G$32)</f>
         <v>1.1625000000000005</v>
       </c>
+      <c r="I32">
+        <f>ABS(SUM(H32:H37))</f>
+        <v>7.7249999999999996</v>
+      </c>
       <c r="J32">
-        <f>ABS(SUM(I32:I37))</f>
-        <v>7.7249999999999996</v>
-      </c>
-      <c r="K32">
-        <f>(1/6)*J32</f>
+        <f>(1/6)*I32</f>
         <v>1.2874999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33">
         <v>5.28</v>
       </c>
-      <c r="G33">
-        <v>0.11313708498984799</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" ref="I33:I37" si="5">ABS(F33-$H$32)</f>
+      <c r="H33" s="1">
+        <f t="shared" ref="H33:H36" si="5">ABS(F33-$G$32)</f>
         <v>0.33249999999999957</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34">
         <v>5.68</v>
       </c>
-      <c r="G34">
-        <v>0.35355339059327401</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="H34" s="1">
         <f t="shared" si="5"/>
         <v>0.73249999999999904</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35">
         <v>7.7450000000000001</v>
       </c>
-      <c r="G35">
-        <v>0.31819805153394598</v>
-      </c>
-      <c r="I35" s="1">
+      <c r="H35" s="1">
         <f t="shared" si="5"/>
         <v>2.7974999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <v>3.145</v>
       </c>
-      <c r="G36">
-        <v>0.45961940777125598</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="H36" s="1">
         <f t="shared" si="5"/>
         <v>1.8025000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37">
         <v>4.05</v>
       </c>
-      <c r="G37">
-        <v>1.5556349186103999</v>
-      </c>
-      <c r="I37" s="1">
-        <f>ABS(F37-$H$32)</f>
+      <c r="H37" s="1">
+        <f>ABS(F37-$G$32)</f>
         <v>0.89750000000000085</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
         <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>19</v>
       </c>
       <c r="F38">
         <v>12.53</v>
       </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="G38">
+        <f>AVERAGE(F38:F43)</f>
+        <v>9.83</v>
+      </c>
+      <c r="H38" s="1">
+        <f>ABS(F38-$G$38)</f>
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="I38">
+        <f>ABS(SUM(H38:H43))</f>
+        <v>13.16</v>
+      </c>
+      <c r="J38">
+        <f>(1/6)*I38</f>
+        <v>2.1933333333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
         <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>19</v>
       </c>
       <c r="F39">
         <v>8.94</v>
       </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="H39" s="1">
+        <f t="shared" ref="H39:H43" si="6">ABS(F39-$G$38)</f>
+        <v>0.89000000000000057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
         <v>18</v>
-      </c>
-      <c r="E40" t="s">
-        <v>19</v>
       </c>
       <c r="F40">
         <v>11.55</v>
       </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="H40" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7200000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
         <v>18</v>
-      </c>
-      <c r="E41" t="s">
-        <v>19</v>
       </c>
       <c r="F41">
         <v>7.25</v>
       </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="H41" s="1">
+        <f t="shared" si="6"/>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
         <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
       </c>
       <c r="F42">
         <v>6.72</v>
       </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="H42" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1100000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
         <v>18</v>
-      </c>
-      <c r="E43" t="s">
-        <v>19</v>
       </c>
       <c r="F43">
         <v>11.99</v>
       </c>
-      <c r="G43" t="s">
-        <v>20</v>
+      <c r="H43" s="1">
+        <f t="shared" si="6"/>
+        <v>2.16</v>
       </c>
     </row>
   </sheetData>
